--- a/Finflux Automation Excels/Client/4973-DISBLOAN-MakeRepayment-JouranlEntries.xlsx
+++ b/Finflux Automation Excels/Client/4973-DISBLOAN-MakeRepayment-JouranlEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>CenterName</t>
   </si>
@@ -375,9 +375,6 @@
     <t>mifos</t>
   </si>
   <si>
-    <t>Income from fees(8)</t>
-  </si>
-  <si>
     <t>ASSET</t>
   </si>
   <si>
@@ -442,6 +439,12 @@
   </si>
   <si>
     <t>navigate</t>
+  </si>
+  <si>
+    <t>From HDFC(28)</t>
+  </si>
+  <si>
+    <t>Fees to SBI 1(30)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm\ yy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -589,7 +592,7 @@
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -900,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,19 +1681,19 @@
         <v>42044</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1704,19 +1707,19 @@
         <v>42044</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>111</v>
       </c>
       <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
         <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1778,19 +1781,19 @@
         <v>42044</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,19 +1807,19 @@
         <v>42044</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1832,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,11 +1889,11 @@
       <c r="F2" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>112</v>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1907,16 +1910,16 @@
         <v>109</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1932,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,16 +1984,16 @@
         <v>109</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,10 +2016,10 @@
         <v>111</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,16 +2036,16 @@
         <v>109</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2123,16 +2126,16 @@
         <v>109</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,10 +2158,10 @@
         <v>111</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,16 +2178,16 @@
         <v>109</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2225,7 @@
         <v>107</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="18"/>
     </row>
@@ -2234,7 +2237,7 @@
         <v>42044</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20">
@@ -2303,19 +2306,19 @@
         <v>42044</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="I2" s="28"/>
     </row>
@@ -2330,20 +2333,20 @@
         <v>42044</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2359,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,10 +2956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Finflux Automation Excels/Client/4973-DISBLOAN-MakeRepayment-JouranlEntries.xlsx
+++ b/Finflux Automation Excels/Client/4973-DISBLOAN-MakeRepayment-JouranlEntries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -420,9 +420,6 @@
     <t>$ 49.46</t>
   </si>
   <si>
-    <t>$ 9316.54</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Fees to SBI 1(30)</t>
+  </si>
+  <si>
+    <t>$ 9,316.54</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1816,7 @@
         <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
         <v>119</v>
@@ -1890,7 +1890,7 @@
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>120</v>
@@ -2042,7 +2042,7 @@
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>123</v>
@@ -2072,7 +2072,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2187,7 @@
         <v>113</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2225,7 @@
         <v>107</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="18"/>
     </row>
@@ -2237,7 +2237,7 @@
         <v>42044</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20">
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2306,7 @@
         <v>42044</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>116</v>
@@ -2333,7 +2333,7 @@
         <v>42044</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>116</v>
@@ -2342,7 +2342,7 @@
         <v>111</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28" t="s">
@@ -2425,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2956,10 +2956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
